--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.8043254645127</v>
+        <v>83.148033</v>
       </c>
       <c r="H2">
-        <v>81.8043254645127</v>
+        <v>249.444099</v>
       </c>
       <c r="I2">
-        <v>0.1324162872773468</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="J2">
-        <v>0.1324162872773468</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.57772146876226</v>
+        <v>5.243417666666667</v>
       </c>
       <c r="N2">
-        <v>4.57772146876226</v>
+        <v>15.730253</v>
       </c>
       <c r="O2">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974575</v>
       </c>
       <c r="P2">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974574</v>
       </c>
       <c r="Q2">
-        <v>374.477416916515</v>
+        <v>435.979865180783</v>
       </c>
       <c r="R2">
-        <v>374.477416916515</v>
+        <v>3923.818786627047</v>
       </c>
       <c r="S2">
-        <v>0.1229183393305785</v>
+        <v>0.106605983902344</v>
       </c>
       <c r="T2">
-        <v>0.1229183393305785</v>
+        <v>0.106605983902344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.8043254645127</v>
+        <v>83.148033</v>
       </c>
       <c r="H3">
-        <v>81.8043254645127</v>
+        <v>249.444099</v>
       </c>
       <c r="I3">
-        <v>0.1324162872773468</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="J3">
-        <v>0.1324162872773468</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.353722320541402</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N3">
-        <v>0.353722320541402</v>
+        <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.07172794330711593</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="P3">
-        <v>0.07172794330711593</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="Q3">
-        <v>28.93601583363154</v>
+        <v>56.482347952856</v>
       </c>
       <c r="R3">
-        <v>28.93601583363154</v>
+        <v>508.341131575704</v>
       </c>
       <c r="S3">
-        <v>0.009497947946768309</v>
+        <v>0.01381108798254238</v>
       </c>
       <c r="T3">
-        <v>0.009497947946768309</v>
+        <v>0.01381108798254239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>153.862994119121</v>
+        <v>83.148033</v>
       </c>
       <c r="H4">
-        <v>153.862994119121</v>
+        <v>249.444099</v>
       </c>
       <c r="I4">
-        <v>0.2490573244744695</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="J4">
-        <v>0.2490573244744695</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.57772146876226</v>
+        <v>0.4298626666666667</v>
       </c>
       <c r="N4">
-        <v>4.57772146876226</v>
+        <v>1.289588</v>
       </c>
       <c r="O4">
-        <v>0.9282720566928842</v>
+        <v>0.06766742557104236</v>
       </c>
       <c r="P4">
-        <v>0.9282720566928842</v>
+        <v>0.06766742557104236</v>
       </c>
       <c r="Q4">
-        <v>704.3419314271415</v>
+        <v>35.74223519346801</v>
       </c>
       <c r="R4">
-        <v>704.3419314271415</v>
+        <v>321.680116741212</v>
       </c>
       <c r="S4">
-        <v>0.2311929548243428</v>
+        <v>0.008739706702025457</v>
       </c>
       <c r="T4">
-        <v>0.2311929548243428</v>
+        <v>0.008739706702025458</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>153.862994119121</v>
+        <v>154.0559436666667</v>
       </c>
       <c r="H5">
-        <v>153.862994119121</v>
+        <v>462.167831</v>
       </c>
       <c r="I5">
-        <v>0.2490573244744695</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="J5">
-        <v>0.2490573244744695</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.353722320541402</v>
+        <v>5.243417666666667</v>
       </c>
       <c r="N5">
-        <v>0.353722320541402</v>
+        <v>15.730253</v>
       </c>
       <c r="O5">
-        <v>0.07172794330711593</v>
+        <v>0.8253998362974575</v>
       </c>
       <c r="P5">
-        <v>0.07172794330711593</v>
+        <v>0.8253998362974574</v>
       </c>
       <c r="Q5">
-        <v>54.42477532526357</v>
+        <v>807.7796566768048</v>
       </c>
       <c r="R5">
-        <v>54.42477532526357</v>
+        <v>7270.016910091244</v>
       </c>
       <c r="S5">
-        <v>0.01786436965012673</v>
+        <v>0.1975186286197424</v>
       </c>
       <c r="T5">
-        <v>0.01786436965012673</v>
+        <v>0.1975186286197424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>152.795308583146</v>
+        <v>154.0559436666667</v>
       </c>
       <c r="H6">
-        <v>152.795308583146</v>
+        <v>462.167831</v>
       </c>
       <c r="I6">
-        <v>0.2473290667833177</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="J6">
-        <v>0.2473290667833177</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>4.57772146876226</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N6">
-        <v>4.57772146876226</v>
+        <v>2.037896</v>
       </c>
       <c r="O6">
-        <v>0.9282720566928842</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="P6">
-        <v>0.9282720566928842</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="Q6">
-        <v>699.4543644272219</v>
+        <v>104.6499971248418</v>
       </c>
       <c r="R6">
-        <v>699.4543644272219</v>
+        <v>941.8499741235761</v>
       </c>
       <c r="S6">
-        <v>0.229588661502882</v>
+        <v>0.02558906224773743</v>
       </c>
       <c r="T6">
-        <v>0.229588661502882</v>
+        <v>0.02558906224773744</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>152.795308583146</v>
+        <v>154.0559436666667</v>
       </c>
       <c r="H7">
-        <v>152.795308583146</v>
+        <v>462.167831</v>
       </c>
       <c r="I7">
-        <v>0.2473290667833177</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="J7">
-        <v>0.2473290667833177</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.353722320541402</v>
+        <v>0.4298626666666667</v>
       </c>
       <c r="N7">
-        <v>0.353722320541402</v>
+        <v>1.289588</v>
       </c>
       <c r="O7">
-        <v>0.07172794330711593</v>
+        <v>0.06766742557104236</v>
       </c>
       <c r="P7">
-        <v>0.07172794330711593</v>
+        <v>0.06766742557104236</v>
       </c>
       <c r="Q7">
-        <v>54.04711111987001</v>
+        <v>66.22289876040313</v>
       </c>
       <c r="R7">
-        <v>54.04711111987001</v>
+        <v>596.0060888436282</v>
       </c>
       <c r="S7">
-        <v>0.0177404052804357</v>
+        <v>0.01619285164990521</v>
       </c>
       <c r="T7">
-        <v>0.0177404052804357</v>
+        <v>0.01619285164990521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>129.753340428806</v>
+        <v>154.1469826666666</v>
       </c>
       <c r="H8">
-        <v>129.753340428806</v>
+        <v>462.4409479999999</v>
       </c>
       <c r="I8">
-        <v>0.2100311383762903</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="J8">
-        <v>0.2100311383762903</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.57772146876226</v>
+        <v>5.243417666666667</v>
       </c>
       <c r="N8">
-        <v>4.57772146876226</v>
+        <v>15.730253</v>
       </c>
       <c r="O8">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974575</v>
       </c>
       <c r="P8">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974574</v>
       </c>
       <c r="Q8">
-        <v>593.9746521245634</v>
+        <v>808.2570121777603</v>
       </c>
       <c r="R8">
-        <v>593.9746521245634</v>
+        <v>7274.313109599842</v>
       </c>
       <c r="S8">
-        <v>0.1949660367901067</v>
+        <v>0.1976353517918767</v>
       </c>
       <c r="T8">
-        <v>0.1949660367901067</v>
+        <v>0.1976353517918766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>129.753340428806</v>
+        <v>154.1469826666666</v>
       </c>
       <c r="H9">
-        <v>129.753340428806</v>
+        <v>462.4409479999999</v>
       </c>
       <c r="I9">
-        <v>0.2100311383762903</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="J9">
-        <v>0.2100311383762903</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.353722320541402</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N9">
-        <v>0.353722320541402</v>
+        <v>2.037896</v>
       </c>
       <c r="O9">
-        <v>0.07172794330711593</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="P9">
-        <v>0.07172794330711593</v>
+        <v>0.1069327381315001</v>
       </c>
       <c r="Q9">
-        <v>45.89665267447577</v>
+        <v>104.7118397961564</v>
       </c>
       <c r="R9">
-        <v>45.89665267447577</v>
+        <v>942.4065581654079</v>
       </c>
       <c r="S9">
-        <v>0.01506510158618357</v>
+        <v>0.02560418404429085</v>
       </c>
       <c r="T9">
-        <v>0.01506510158618357</v>
+        <v>0.02560418404429085</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>99.5654776790178</v>
+        <v>154.1469826666666</v>
       </c>
       <c r="H10">
-        <v>99.5654776790178</v>
+        <v>462.4409479999999</v>
       </c>
       <c r="I10">
-        <v>0.1611661830885756</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="J10">
-        <v>0.1611661830885756</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.57772146876226</v>
+        <v>0.4298626666666667</v>
       </c>
       <c r="N10">
-        <v>4.57772146876226</v>
+        <v>1.289588</v>
       </c>
       <c r="O10">
-        <v>0.9282720566928842</v>
+        <v>0.06766742557104236</v>
       </c>
       <c r="P10">
-        <v>0.9282720566928842</v>
+        <v>0.06766742557104236</v>
       </c>
       <c r="Q10">
-        <v>455.7830247188094</v>
+        <v>66.26203302771378</v>
       </c>
       <c r="R10">
-        <v>455.7830247188094</v>
+        <v>596.358297249424</v>
       </c>
       <c r="S10">
-        <v>0.149606064244974</v>
+        <v>0.01620242077775753</v>
       </c>
       <c r="T10">
-        <v>0.149606064244974</v>
+        <v>0.01620242077775753</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>132.8624013333333</v>
+      </c>
+      <c r="H11">
+        <v>398.587204</v>
+      </c>
+      <c r="I11">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="J11">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.243417666666667</v>
+      </c>
+      <c r="N11">
+        <v>15.730253</v>
+      </c>
+      <c r="O11">
+        <v>0.8253998362974575</v>
+      </c>
+      <c r="P11">
+        <v>0.8253998362974574</v>
+      </c>
+      <c r="Q11">
+        <v>696.6530623869569</v>
+      </c>
+      <c r="R11">
+        <v>6269.877561482613</v>
+      </c>
+      <c r="S11">
+        <v>0.1703459060512966</v>
+      </c>
+      <c r="T11">
+        <v>0.1703459060512966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>132.8624013333333</v>
+      </c>
+      <c r="H12">
+        <v>398.587204</v>
+      </c>
+      <c r="I12">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="J12">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N12">
+        <v>2.037896</v>
+      </c>
+      <c r="O12">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="P12">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="Q12">
+        <v>90.25325207586488</v>
+      </c>
+      <c r="R12">
+        <v>812.279268682784</v>
+      </c>
+      <c r="S12">
+        <v>0.02206876396446472</v>
+      </c>
+      <c r="T12">
+        <v>0.02206876396446472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>99.5654776790178</v>
-      </c>
-      <c r="H11">
-        <v>99.5654776790178</v>
-      </c>
-      <c r="I11">
-        <v>0.1611661830885756</v>
-      </c>
-      <c r="J11">
-        <v>0.1611661830885756</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.353722320541402</v>
-      </c>
-      <c r="N11">
-        <v>0.353722320541402</v>
-      </c>
-      <c r="O11">
-        <v>0.07172794330711593</v>
-      </c>
-      <c r="P11">
-        <v>0.07172794330711593</v>
-      </c>
-      <c r="Q11">
-        <v>35.21853181043534</v>
-      </c>
-      <c r="R11">
-        <v>35.21853181043534</v>
-      </c>
-      <c r="S11">
-        <v>0.01156011884360162</v>
-      </c>
-      <c r="T11">
-        <v>0.01156011884360162</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>132.8624013333333</v>
+      </c>
+      <c r="H13">
+        <v>398.587204</v>
+      </c>
+      <c r="I13">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="J13">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4298626666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.289588</v>
+      </c>
+      <c r="O13">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="P13">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="Q13">
+        <v>57.11258613688356</v>
+      </c>
+      <c r="R13">
+        <v>514.0132752319521</v>
+      </c>
+      <c r="S13">
+        <v>0.01396519409400977</v>
+      </c>
+      <c r="T13">
+        <v>0.01396519409400977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>119.5626293333333</v>
+      </c>
+      <c r="H14">
+        <v>358.687888</v>
+      </c>
+      <c r="I14">
+        <v>0.1857208581720069</v>
+      </c>
+      <c r="J14">
+        <v>0.185720858172007</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.243417666666667</v>
+      </c>
+      <c r="N14">
+        <v>15.730253</v>
+      </c>
+      <c r="O14">
+        <v>0.8253998362974575</v>
+      </c>
+      <c r="P14">
+        <v>0.8253998362974574</v>
+      </c>
+      <c r="Q14">
+        <v>626.9168029195183</v>
+      </c>
+      <c r="R14">
+        <v>5642.251226275665</v>
+      </c>
+      <c r="S14">
+        <v>0.1532939659321979</v>
+      </c>
+      <c r="T14">
+        <v>0.1532939659321979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>119.5626293333333</v>
+      </c>
+      <c r="H15">
+        <v>358.687888</v>
+      </c>
+      <c r="I15">
+        <v>0.1857208581720069</v>
+      </c>
+      <c r="J15">
+        <v>0.185720858172007</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.037896</v>
+      </c>
+      <c r="O15">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="P15">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="Q15">
+        <v>81.21873468929422</v>
+      </c>
+      <c r="R15">
+        <v>730.968612203648</v>
+      </c>
+      <c r="S15">
+        <v>0.01985963989246468</v>
+      </c>
+      <c r="T15">
+        <v>0.01985963989246468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>119.5626293333333</v>
+      </c>
+      <c r="H16">
+        <v>358.687888</v>
+      </c>
+      <c r="I16">
+        <v>0.1857208581720069</v>
+      </c>
+      <c r="J16">
+        <v>0.185720858172007</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4298626666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.289588</v>
+      </c>
+      <c r="O16">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="P16">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="Q16">
+        <v>51.39551067890491</v>
+      </c>
+      <c r="R16">
+        <v>462.5595961101441</v>
+      </c>
+      <c r="S16">
+        <v>0.01256725234734439</v>
+      </c>
+      <c r="T16">
+        <v>0.01256725234734439</v>
       </c>
     </row>
   </sheetData>
